--- a/pred_ohlcv/54_21/2019-10-08 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-08 HDAC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1618836.12404821</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2504757.51048127</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2037032.3919634</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2089281.5206634</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2344350.6444634</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2220645.8453634</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2185924.0571634</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>2853106.0147136</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2805494.2508136</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>2779353.9877136</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2918334.37246414</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2916291.38006414</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2638595.76026414</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2734070.27866414</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2734527.69246414</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>2836211.88216414</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2824370.80056414</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2824390.80056414</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2808179.44646414</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2806989.68146414</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2806989.68146414</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2791979.68146414</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2807420.00196414</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2824248.52576414</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2549352.96546414</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2549352.96546414</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>904975.0756534613</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-08 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-08 HDAC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1618836.12404821</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2504757.51048127</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2488161.88198127</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2018780.34655146</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2001825.42055146</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2001128.22665146</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2085977.484951461</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2085977.484951461</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2045302.45935146</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2066674.188451461</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2031495.43400743</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2061766.689463401</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2061766.689463401</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2037032.3919634</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2344350.6444634</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2220635.8453634</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2220645.8453634</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2185924.0571634</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3059499.6787136</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2853106.0147136</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>2853106.0147136</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>2805494.2508136</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2805494.2508136</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>2779353.9877136</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2672079.8363434</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2754243.10616414</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2918334.37246414</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2916291.38006414</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2638595.76026414</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2734070.27866414</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2734527.69246414</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>2836211.88216414</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2824370.80056414</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2824390.80056414</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2808179.44646414</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2806989.68146414</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2806989.68146414</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2791979.68146414</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2807420.00196414</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2824248.52576414</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2549352.96546414</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2549352.96546414</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2550058.45356414</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2619723.91366414</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2598533.09776414</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>2514289.24496414</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>2647204.15926414</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2567406.73526414</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2762176.44406414</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2762176.44406414</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2762226.44406414</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2441586.78446414</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2356598.44766414</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>904975.0756534613</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
